--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>compatibility</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKキアイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おいしいみず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーガー</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -412,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,6 +526,48 @@
       </c>
       <c r="D5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
